--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>anchor score</t>
   </si>
@@ -94,64 +94,64 @@
     <t>low</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -790,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>0.8807339449541285</v>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.8448275862068966</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.8226950354609929</v>
@@ -1122,7 +1122,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.8076923076923077</v>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0.8</v>
@@ -1222,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.7978723404255319</v>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.7777777777777778</v>
@@ -1322,28 +1322,28 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L12">
         <v>174</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1372,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>0.7222222222222222</v>
@@ -1422,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>0.6866197183098591</v>
@@ -1472,28 +1472,28 @@
         <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.6779141104294478</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1525,25 +1525,25 @@
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1575,25 +1575,25 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.6567164179104478</v>
+        <v>0.65</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1751,25 +1751,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1176470588235294</v>
+        <v>0.02145214521452145</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E21">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F21">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>105</v>
+        <v>593</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
@@ -1801,25 +1801,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02145214521452145</v>
+        <v>0.02001250781738587</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>301</v>
+        <v>576</v>
       </c>
       <c r="E22">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F22">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>593</v>
+        <v>1567</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
@@ -1851,25 +1851,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.02001250781738587</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>576</v>
+        <v>803</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1567</v>
+        <v>2304</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
@@ -1901,25 +1901,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01790281329923274</v>
+        <v>0.004835924006908463</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>803</v>
+        <v>320</v>
       </c>
       <c r="E24">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F24">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2304</v>
+        <v>2881</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
@@ -1947,30 +1947,6 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.004835924006908463</v>
-      </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>320</v>
-      </c>
-      <c r="E25">
-        <v>0.96</v>
-      </c>
-      <c r="F25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2881</v>
-      </c>
       <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2778,7 +2754,7 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K56">
         <v>0.3269012485811578</v>
@@ -3272,7 +3248,7 @@
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K75">
         <v>0.2576977735670298</v>
@@ -3324,7 +3300,7 @@
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K77">
         <v>0.2482871125611746</v>
@@ -4104,7 +4080,7 @@
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K107">
         <v>0.09601506118606841</v>
